--- a/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>390</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>330</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>210</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>140</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>240</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>420</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>80</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>60</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>220</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>1280</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>140</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>100</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>180</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>80</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>60</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>320</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>220</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>260</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>320</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>340</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>560</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>450</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>330</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>360</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>660</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1640</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>420</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>140</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>540</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>1480</v>

--- a/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,161 +476,145 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>420</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>1280</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B23" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B24" t="n">
         <v>560</v>
       </c>
     </row>
@@ -686,7 +670,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -719,6 +720,453 @@
       </c>
       <c r="B10" t="n">
         <v>1480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>242</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-94.13812896678213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>590.3573777675928</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>243</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-107.6060260361539</v>
+      </c>
+      <c r="D3" t="n">
+        <v>563.8462540693727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-93.25275333630549</v>
+      </c>
+      <c r="D4" t="n">
+        <v>581.7417407432782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>256</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-71.57863208608477</v>
+      </c>
+      <c r="D5" t="n">
+        <v>578.129330786212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>259</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-63.09985243869867</v>
+      </c>
+      <c r="D6" t="n">
+        <v>601.5031032211979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>264</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-70.44423504369551</v>
+      </c>
+      <c r="D7" t="n">
+        <v>612.8575336947431</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>265</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-59.01297789710681</v>
+      </c>
+      <c r="D8" t="n">
+        <v>585.7434500551666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-55.13162285470388</v>
+      </c>
+      <c r="D9" t="n">
+        <v>624.7157979407846</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>270</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-29.15765355612379</v>
+      </c>
+      <c r="D10" t="n">
+        <v>631.7208723334394</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>271</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-52.04740321654521</v>
+      </c>
+      <c r="D11" t="n">
+        <v>586.9524522814169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>275</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-46.43187421019154</v>
+      </c>
+      <c r="D12" t="n">
+        <v>591.638197111783</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-41.77036743650535</v>
+      </c>
+      <c r="D13" t="n">
+        <v>622.9811161853366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>278</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-57.77381991664202</v>
+      </c>
+      <c r="D14" t="n">
+        <v>582.9950899741617</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>290</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-44.42366055798218</v>
+      </c>
+      <c r="D15" t="n">
+        <v>603.8525456212676</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>292</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-34.46718662383869</v>
+      </c>
+      <c r="D16" t="n">
+        <v>613.4969506922179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>294</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-17.65331028280268</v>
+      </c>
+      <c r="D17" t="n">
+        <v>628.7010365471905</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>295</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-26.05378888747623</v>
+      </c>
+      <c r="D18" t="n">
+        <v>619.1989175442332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>300</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.982110082768023</v>
+      </c>
+      <c r="D19" t="n">
+        <v>649.0012117036763</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>303</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-44.11115102949659</v>
+      </c>
+      <c r="D20" t="n">
+        <v>637.3289152226879</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>305</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-45.10894708639017</v>
+      </c>
+      <c r="D21" t="n">
+        <v>637.1132637631767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>306</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.959574240167655</v>
+      </c>
+      <c r="D22" t="n">
+        <v>669.3855109319617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>308</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-35.25915263275606</v>
+      </c>
+      <c r="D23" t="n">
+        <v>627.8987699662498</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>309</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.807488529380513</v>
+      </c>
+      <c r="D24" t="n">
+        <v>640.3316011723504</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>311</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-21.38233839027835</v>
+      </c>
+      <c r="D25" t="n">
+        <v>675.1195579822972</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>312</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-24.13833038917155</v>
+      </c>
+      <c r="D26" t="n">
+        <v>651.8755150613601</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>314</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-28.57927132787847</v>
+      </c>
+      <c r="D27" t="n">
+        <v>651.1979535647362</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>316</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-47.07527908462793</v>
+      </c>
+      <c r="D28" t="n">
+        <v>627.8941506169899</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>317</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.910626759465179</v>
+      </c>
+      <c r="D29" t="n">
+        <v>644.4110066706933</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>319</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-13.45032502940971</v>
+      </c>
+      <c r="D30" t="n">
+        <v>647.9615538566065</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJVCD3Y_po_data.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,16 +752,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -770,12 +760,6 @@
       <c r="B2" t="n">
         <v>242</v>
       </c>
-      <c r="C2" t="n">
-        <v>-94.13812896678213</v>
-      </c>
-      <c r="D2" t="n">
-        <v>590.3573777675928</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -784,12 +768,6 @@
       <c r="B3" t="n">
         <v>243</v>
       </c>
-      <c r="C3" t="n">
-        <v>-107.6060260361539</v>
-      </c>
-      <c r="D3" t="n">
-        <v>563.8462540693727</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,12 +776,6 @@
       <c r="B4" t="n">
         <v>251</v>
       </c>
-      <c r="C4" t="n">
-        <v>-93.25275333630549</v>
-      </c>
-      <c r="D4" t="n">
-        <v>581.7417407432782</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -812,12 +784,6 @@
       <c r="B5" t="n">
         <v>256</v>
       </c>
-      <c r="C5" t="n">
-        <v>-71.57863208608477</v>
-      </c>
-      <c r="D5" t="n">
-        <v>578.129330786212</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -826,12 +792,6 @@
       <c r="B6" t="n">
         <v>259</v>
       </c>
-      <c r="C6" t="n">
-        <v>-63.09985243869867</v>
-      </c>
-      <c r="D6" t="n">
-        <v>601.5031032211979</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -840,12 +800,6 @@
       <c r="B7" t="n">
         <v>264</v>
       </c>
-      <c r="C7" t="n">
-        <v>-70.44423504369551</v>
-      </c>
-      <c r="D7" t="n">
-        <v>612.8575336947431</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,12 +808,6 @@
       <c r="B8" t="n">
         <v>265</v>
       </c>
-      <c r="C8" t="n">
-        <v>-59.01297789710681</v>
-      </c>
-      <c r="D8" t="n">
-        <v>585.7434500551666</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -868,12 +816,6 @@
       <c r="B9" t="n">
         <v>268</v>
       </c>
-      <c r="C9" t="n">
-        <v>-55.13162285470388</v>
-      </c>
-      <c r="D9" t="n">
-        <v>624.7157979407846</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -882,12 +824,6 @@
       <c r="B10" t="n">
         <v>270</v>
       </c>
-      <c r="C10" t="n">
-        <v>-29.15765355612379</v>
-      </c>
-      <c r="D10" t="n">
-        <v>631.7208723334394</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -896,12 +832,6 @@
       <c r="B11" t="n">
         <v>271</v>
       </c>
-      <c r="C11" t="n">
-        <v>-52.04740321654521</v>
-      </c>
-      <c r="D11" t="n">
-        <v>586.9524522814169</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -910,12 +840,6 @@
       <c r="B12" t="n">
         <v>275</v>
       </c>
-      <c r="C12" t="n">
-        <v>-46.43187421019154</v>
-      </c>
-      <c r="D12" t="n">
-        <v>591.638197111783</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -924,12 +848,6 @@
       <c r="B13" t="n">
         <v>276</v>
       </c>
-      <c r="C13" t="n">
-        <v>-41.77036743650535</v>
-      </c>
-      <c r="D13" t="n">
-        <v>622.9811161853366</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -938,12 +856,6 @@
       <c r="B14" t="n">
         <v>278</v>
       </c>
-      <c r="C14" t="n">
-        <v>-57.77381991664202</v>
-      </c>
-      <c r="D14" t="n">
-        <v>582.9950899741617</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -952,12 +864,6 @@
       <c r="B15" t="n">
         <v>290</v>
       </c>
-      <c r="C15" t="n">
-        <v>-44.42366055798218</v>
-      </c>
-      <c r="D15" t="n">
-        <v>603.8525456212676</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -966,12 +872,6 @@
       <c r="B16" t="n">
         <v>292</v>
       </c>
-      <c r="C16" t="n">
-        <v>-34.46718662383869</v>
-      </c>
-      <c r="D16" t="n">
-        <v>613.4969506922179</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -980,12 +880,6 @@
       <c r="B17" t="n">
         <v>294</v>
       </c>
-      <c r="C17" t="n">
-        <v>-17.65331028280268</v>
-      </c>
-      <c r="D17" t="n">
-        <v>628.7010365471905</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -994,12 +888,6 @@
       <c r="B18" t="n">
         <v>295</v>
       </c>
-      <c r="C18" t="n">
-        <v>-26.05378888747623</v>
-      </c>
-      <c r="D18" t="n">
-        <v>619.1989175442332</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1008,12 +896,6 @@
       <c r="B19" t="n">
         <v>300</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.982110082768023</v>
-      </c>
-      <c r="D19" t="n">
-        <v>649.0012117036763</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1022,12 +904,6 @@
       <c r="B20" t="n">
         <v>303</v>
       </c>
-      <c r="C20" t="n">
-        <v>-44.11115102949659</v>
-      </c>
-      <c r="D20" t="n">
-        <v>637.3289152226879</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1036,12 +912,6 @@
       <c r="B21" t="n">
         <v>305</v>
       </c>
-      <c r="C21" t="n">
-        <v>-45.10894708639017</v>
-      </c>
-      <c r="D21" t="n">
-        <v>637.1132637631767</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1050,12 +920,6 @@
       <c r="B22" t="n">
         <v>306</v>
       </c>
-      <c r="C22" t="n">
-        <v>-6.959574240167655</v>
-      </c>
-      <c r="D22" t="n">
-        <v>669.3855109319617</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1064,12 +928,6 @@
       <c r="B23" t="n">
         <v>308</v>
       </c>
-      <c r="C23" t="n">
-        <v>-35.25915263275606</v>
-      </c>
-      <c r="D23" t="n">
-        <v>627.8987699662498</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1078,12 +936,6 @@
       <c r="B24" t="n">
         <v>309</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.807488529380513</v>
-      </c>
-      <c r="D24" t="n">
-        <v>640.3316011723504</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1092,12 +944,6 @@
       <c r="B25" t="n">
         <v>311</v>
       </c>
-      <c r="C25" t="n">
-        <v>-21.38233839027835</v>
-      </c>
-      <c r="D25" t="n">
-        <v>675.1195579822972</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1106,12 +952,6 @@
       <c r="B26" t="n">
         <v>312</v>
       </c>
-      <c r="C26" t="n">
-        <v>-24.13833038917155</v>
-      </c>
-      <c r="D26" t="n">
-        <v>651.8755150613601</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1120,12 +960,6 @@
       <c r="B27" t="n">
         <v>314</v>
       </c>
-      <c r="C27" t="n">
-        <v>-28.57927132787847</v>
-      </c>
-      <c r="D27" t="n">
-        <v>651.1979535647362</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1134,12 +968,6 @@
       <c r="B28" t="n">
         <v>316</v>
       </c>
-      <c r="C28" t="n">
-        <v>-47.07527908462793</v>
-      </c>
-      <c r="D28" t="n">
-        <v>627.8941506169899</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1148,12 +976,6 @@
       <c r="B29" t="n">
         <v>317</v>
       </c>
-      <c r="C29" t="n">
-        <v>5.910626759465179</v>
-      </c>
-      <c r="D29" t="n">
-        <v>644.4110066706933</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1161,12 +983,6 @@
       </c>
       <c r="B30" t="n">
         <v>319</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-13.45032502940971</v>
-      </c>
-      <c r="D30" t="n">
-        <v>647.9615538566065</v>
       </c>
     </row>
   </sheetData>
